--- a/业绩报表/871003.xlsx
+++ b/业绩报表/871003.xlsx
@@ -639,7 +639,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2020-12-11 00:00:00</t>
+          <t>2020-12-16 00:00:00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -648,7 +648,7 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0.13</v>
+        <v>0.08</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
@@ -665,10 +665,10 @@
         <v>-46.7577158119</v>
       </c>
       <c r="P2" t="n">
-        <v>1.710268421333</v>
+        <v>1.068917763333</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.278482444667</v>
+        <v>0.174051527917</v>
       </c>
       <c r="R2" t="n">
         <v>11.761341845</v>
